--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,48 +49,36 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -103,51 +91,51 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>free</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -163,45 +151,42 @@
     <t>relief</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -214,13 +199,16 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -592,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -724,16 +712,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,16 +762,16 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7241379310344828</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>0.9230769230769231</v>
@@ -853,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6815068493150684</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C7">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5128205128205128</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4871794871794872</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3892617449664429</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="C12">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3725490196078431</v>
+        <v>0.3507751937984496</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>335</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3527131782945737</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C14">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3220338983050847</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,20 +1259,20 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>64</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="L15">
         <v>40</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="M15">
         <v>40</v>
       </c>
-      <c r="K15">
-        <v>0.775</v>
-      </c>
-      <c r="L15">
-        <v>93</v>
-      </c>
-      <c r="M15">
-        <v>93</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1295,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3068783068783069</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K16">
         <v>0.7746478873239436</v>
@@ -1353,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2777777777777778</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,245 +1359,149 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="L17">
+        <v>80</v>
+      </c>
+      <c r="M17">
+        <v>80</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L18">
+        <v>46</v>
+      </c>
+      <c r="M18">
+        <v>46</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.70625</v>
+      </c>
+      <c r="L19">
+        <v>113</v>
+      </c>
+      <c r="M19">
+        <v>113</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.6702127659574468</v>
+      </c>
+      <c r="L20">
+        <v>63</v>
+      </c>
+      <c r="M20">
+        <v>63</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K17">
-        <v>0.746031746031746</v>
-      </c>
-      <c r="L17">
-        <v>47</v>
-      </c>
-      <c r="M17">
-        <v>47</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="K21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L21">
+        <v>32</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2597402597402597</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>57</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.7358490566037735</v>
-      </c>
-      <c r="L18">
-        <v>78</v>
-      </c>
-      <c r="M18">
-        <v>78</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2531645569620253</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>0.05</v>
-      </c>
-      <c r="F19">
-        <v>0.95</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>59</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.7125</v>
-      </c>
-      <c r="L19">
-        <v>114</v>
-      </c>
-      <c r="M19">
-        <v>114</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2103174603174603</v>
-      </c>
-      <c r="C20">
-        <v>53</v>
-      </c>
-      <c r="D20">
-        <v>53</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>199</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.6808510638297872</v>
-      </c>
-      <c r="L20">
-        <v>64</v>
-      </c>
-      <c r="M20">
-        <v>64</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1206434316353887</v>
-      </c>
-      <c r="C21">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>45</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>328</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="L21">
-        <v>31</v>
-      </c>
-      <c r="M21">
-        <v>31</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.6005221932114883</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L22">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M22">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1647,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1673,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.5823529411764706</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L25">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M25">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1699,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.5730337078651685</v>
+        <v>0.55</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1725,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5348837209302325</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1751,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5288135593220339</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L28">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1777,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>139</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5068493150684932</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1803,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.4895397489539749</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L30">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1829,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>122</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.4769230769230769</v>
+        <v>0.4769874476987448</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1855,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.40625</v>
+        <v>0.453125</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1881,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4042553191489361</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1907,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.3974358974358974</v>
+        <v>0.4</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1933,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.3857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1959,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.3278688524590164</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1985,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.1220095693779904</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2011,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.09134615384615384</v>
+        <v>0.06599552572706935</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2037,21 +1929,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>378</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.06823266219239374</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L39">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="M39">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2063,131 +1955,131 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>833</v>
+        <v>854</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.05438401775804662</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L40">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>852</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.04046242774566474</v>
+        <v>0.03460207612456748</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.03858024691358024</v>
+        <v>0.03412809724170173</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="N42">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>623</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.03320860617399439</v>
+        <v>0.01964839710444674</v>
       </c>
       <c r="L43">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2067</v>
+        <v>948</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.01677960632462085</v>
+        <v>0.01614465611882467</v>
       </c>
       <c r="L44">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M44">
         <v>60</v>
       </c>
       <c r="N44">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="O44">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
@@ -2198,28 +2090,28 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.008135168961201502</v>
+        <v>0.007834534628643058</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N45">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="O45">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>3170</v>
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
